--- a/data/pilot_data/pilot_egg_size.xlsx
+++ b/data/pilot_data/pilot_egg_size.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40c2179675f51a02/Amy Butler Research Project/Medfly-Development-Study/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40c2179675f51a02/Amy Butler Research Project/Medfly-Development-Study/data/pilot_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4178A7D7-59A3-4A8B-8284-04791A4AEA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4178A7D7-59A3-4A8B-8284-04791A4AEA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1307D8-E643-4473-B47D-B99212BA84D3}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12165" xr2:uid="{29941FA1-63BB-4AF3-B24E-2249B2ECCC77}"/>
   </bookViews>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD73B27-BEBD-4D30-9085-C5F12CB9CD7D}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="E360" sqref="E360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,8 +480,8 @@
         <v>18.89</v>
       </c>
       <c r="E2">
-        <f>(PI()* 4/3)* (C2*D2*D2)</f>
-        <v>147526.37727653244</v>
+        <f>(PI()* 1/6)* (C2*D2*D2)</f>
+        <v>18440.797159566555</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -501,8 +501,8 @@
         <v>18.73</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">(PI()* 4/3)* (C3*D3*D3)</f>
-        <v>147947.41143794902</v>
+        <f t="shared" ref="E3:E66" si="0">(PI()* 1/6)* (C3*D3*D3)</f>
+        <v>18493.426429743628</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -523,7 +523,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>159728.19884491467</v>
+        <v>19966.024855614334</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>163997.64757288151</v>
+        <v>20499.705946610189</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>159870.606837778</v>
+        <v>19983.82585472225</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>160318.4113395763</v>
+        <v>20039.801417447037</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>186588.81700490665</v>
+        <v>23323.602125613332</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -628,7 +628,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>158659.11327734654</v>
+        <v>19832.389159668317</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -649,7 +649,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>166678.38791964529</v>
+        <v>20834.798489955661</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>131384.00881833179</v>
+        <v>16423.001102291473</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -691,7 +691,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>159108.93927254251</v>
+        <v>19888.617409067814</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -712,7 +712,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>148556.63846822319</v>
+        <v>18569.579808527898</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -733,7 +733,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>163709.27784686655</v>
+        <v>20463.659730858319</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -754,7 +754,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>158818.25423044094</v>
+        <v>19852.281778805118</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -775,7 +775,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>96989.922810128541</v>
+        <v>12123.740351266068</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
@@ -796,7 +796,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>165611.39247042479</v>
+        <v>20701.424058803099</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>131057.92648000291</v>
+        <v>16382.240810000363</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>175545.44305839244</v>
+        <v>21943.180382299055</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -859,7 +859,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>156060.41041606505</v>
+        <v>19507.551302008131</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -880,7 +880,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>152048.35555768735</v>
+        <v>19006.044444710918</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -901,7 +901,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>170466.22901936268</v>
+        <v>21308.278627420335</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>151579.30215256065</v>
+        <v>18947.412769070081</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -943,7 +943,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>115600.56835124614</v>
+        <v>14450.071043905768</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>138170.61128477025</v>
+        <v>17271.326410596281</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>146413.15436793343</v>
+        <v>18301.644295991679</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>159523.29777157606</v>
+        <v>19940.412221447008</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>147920.50269993895</v>
+        <v>18490.062837492369</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>113710.06505832437</v>
+        <v>14213.758132290546</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>141990.28771364281</v>
+        <v>17748.785964205352</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>85021.760579899565</v>
+        <v>10627.720072487446</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>153762.22786790831</v>
+        <v>19220.278483488539</v>
       </c>
       <c r="F32" t="s">
         <v>12</v>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>164810.90625119937</v>
+        <v>20601.363281399921</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>165623.4725392515</v>
+        <v>20702.934067406437</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>159333.24160317169</v>
+        <v>19916.655200396461</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>156810.9721203557</v>
+        <v>19601.371515044462</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>158110.25146401138</v>
+        <v>19763.781433001423</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>146708.38383271694</v>
+        <v>18338.547979089617</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>166299.84098400149</v>
+        <v>20787.480123000187</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>175457.87503780451</v>
+        <v>21932.234379725563</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>154223.60453168099</v>
+        <v>19277.950566460124</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>166800.41050733696</v>
+        <v>20850.05131341712</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>182045.38047725524</v>
+        <v>22755.672559656905</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>155358.27156217594</v>
+        <v>19419.783945271993</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>168961.52780589345</v>
+        <v>21120.190975736681</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>162545.58035978072</v>
+        <v>20318.197544972591</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>149707.35134237033</v>
+        <v>18713.418917796291</v>
       </c>
       <c r="F47" t="s">
         <v>12</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>161084.89094092234</v>
+        <v>20135.611367615293</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>155187.30195144287</v>
+        <v>19398.412743930359</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>162519.49428341165</v>
+        <v>20314.936785426456</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>176729.46869826541</v>
+        <v>22091.183587283176</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>169720.45089673076</v>
+        <v>21215.056362091345</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>146178.36447949268</v>
+        <v>18272.295559936585</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>161109.39047111341</v>
+        <v>20138.673808889176</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>150791.86059677033</v>
+        <v>18848.982574596292</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>150773.46546594298</v>
+        <v>18846.683183242872</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>159604.67777198143</v>
+        <v>19950.584721497678</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>144588.06350349856</v>
+        <v>18073.50793793732</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>146724.24149078041</v>
+        <v>18340.530186347551</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>152316.4282117385</v>
+        <v>19039.553526467313</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>172908.92073713645</v>
+        <v>21613.615092142056</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>119315.67042209581</v>
+        <v>14914.458802761976</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>129740.62727085668</v>
+        <v>16217.578408857085</v>
       </c>
       <c r="F63" t="s">
         <v>12</v>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>125022.2118067949</v>
+        <v>15627.776475849363</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>145081.92224144522</v>
+        <v>18135.240280180653</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>127771.21705602166</v>
+        <v>15971.402132002708</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
@@ -1845,8 +1845,8 @@
         <v>19.600000000000001</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="1">(PI()* 4/3)* (C67*D67*D67)</f>
-        <v>149990.32977704366</v>
+        <f t="shared" ref="E67:E130" si="1">(PI()* 1/6)* (C67*D67*D67)</f>
+        <v>18748.791222130458</v>
       </c>
       <c r="F67" t="s">
         <v>12</v>
@@ -1867,7 +1867,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>131517.28376571691</v>
+        <v>16439.660470714614</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>148811.05418337497</v>
+        <v>18601.381772921872</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>136252.11131192491</v>
+        <v>17031.513913990613</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>137702.86796147921</v>
+        <v>17212.858495184901</v>
       </c>
       <c r="F71" t="s">
         <v>12</v>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>134975.8718307376</v>
+        <v>16871.9839788422</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>149446.47186735438</v>
+        <v>18680.808983419298</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>139821.08704692314</v>
+        <v>17477.635880865393</v>
       </c>
       <c r="F74" t="s">
         <v>12</v>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>161541.39153035978</v>
+        <v>20192.673941294972</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>139317.89659336771</v>
+        <v>17414.737074170964</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>134841.26552665129</v>
+        <v>16855.158190831411</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>134938.18879547133</v>
+        <v>16867.273599433916</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>128833.53700693707</v>
+        <v>16104.192125867134</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>132686.10828593679</v>
+        <v>16585.763535742099</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>128384.1972046202</v>
+        <v>16048.024650577525</v>
       </c>
       <c r="F81" t="s">
         <v>12</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>139788.99135513525</v>
+        <v>17473.623919391906</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>148838.88021617438</v>
+        <v>18604.860027021798</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>111917.72943163912</v>
+        <v>13989.71617895489</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>140920.41481269023</v>
+        <v>17615.051851586279</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>142136.22210237192</v>
+        <v>17767.02776279649</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>122725.35327657891</v>
+        <v>15340.669159572364</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>134472.96055167174</v>
+        <v>16809.120068958968</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>126894.61587340692</v>
+        <v>15861.826984175865</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>124053.76506967824</v>
+        <v>15506.72063370978</v>
       </c>
       <c r="F90" t="s">
         <v>12</v>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>153503.78194596013</v>
+        <v>19187.972743245016</v>
       </c>
       <c r="F91" t="s">
         <v>12</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>163051.32104934377</v>
+        <v>20381.415131167971</v>
       </c>
       <c r="F92" t="s">
         <v>13</v>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>182552.18976489871</v>
+        <v>22819.023720612338</v>
       </c>
       <c r="F93" t="s">
         <v>13</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>167884.57700978967</v>
+        <v>20985.572126223709</v>
       </c>
       <c r="F94" t="s">
         <v>13</v>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>159616.13494257195</v>
+        <v>19952.016867821494</v>
       </c>
       <c r="F95" t="s">
         <v>13</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>172091.32225434939</v>
+        <v>21511.415281793674</v>
       </c>
       <c r="F96" t="s">
         <v>13</v>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>154676.27991790345</v>
+        <v>19334.534989737931</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>168910.80891621788</v>
+        <v>21113.851114527235</v>
       </c>
       <c r="F98" t="s">
         <v>13</v>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>153777.35211069489</v>
+        <v>19222.169013836861</v>
       </c>
       <c r="F99" t="s">
         <v>13</v>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>169172.32179495582</v>
+        <v>21146.540224369477</v>
       </c>
       <c r="F100" t="s">
         <v>13</v>
@@ -2560,7 +2560,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>151066.10157950124</v>
+        <v>18883.262697437654</v>
       </c>
       <c r="F101" t="s">
         <v>13</v>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>147834.04781264887</v>
+        <v>18479.255976581109</v>
       </c>
       <c r="F102" t="s">
         <v>13</v>
@@ -2602,7 +2602,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>164072.34522978344</v>
+        <v>20509.043153722931</v>
       </c>
       <c r="F103" t="s">
         <v>13</v>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>181744.64228420795</v>
+        <v>22718.080285525994</v>
       </c>
       <c r="F104" t="s">
         <v>13</v>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>149486.61905898963</v>
+        <v>18685.827382373704</v>
       </c>
       <c r="F105" t="s">
         <v>13</v>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>137266.52492378146</v>
+        <v>17158.315615472682</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>153788.80243680227</v>
+        <v>19223.600304600284</v>
       </c>
       <c r="F107" t="s">
         <v>13</v>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>158625.90400824905</v>
+        <v>19828.238001031132</v>
       </c>
       <c r="F108" t="s">
         <v>13</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>153731.11000311709</v>
+        <v>19216.388750389637</v>
       </c>
       <c r="F109" t="s">
         <v>13</v>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>158825.83794714214</v>
+        <v>19853.229743392767</v>
       </c>
       <c r="F110" t="s">
         <v>13</v>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>189443.22910069916</v>
+        <v>23680.403637587395</v>
       </c>
       <c r="F111" t="s">
         <v>13</v>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
-        <v>169405.20063583017</v>
+        <v>21175.650079478772</v>
       </c>
       <c r="F112" t="s">
         <v>13</v>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
-        <v>177319.35935979805</v>
+        <v>22164.919919974756</v>
       </c>
       <c r="F113" t="s">
         <v>13</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>176043.54257361905</v>
+        <v>22005.442821702381</v>
       </c>
       <c r="F114" t="s">
         <v>13</v>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
-        <v>144584.84507167747</v>
+        <v>18073.105633959683</v>
       </c>
       <c r="F115" t="s">
         <v>13</v>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
-        <v>175367.49381733758</v>
+        <v>21920.936727167198</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
-        <v>166574.38515136737</v>
+        <v>20821.798143920922</v>
       </c>
       <c r="F117" t="s">
         <v>13</v>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="E118">
         <f t="shared" si="1"/>
-        <v>145488.08462683848</v>
+        <v>18186.01057835481</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="E119">
         <f t="shared" si="1"/>
-        <v>150175.3667569067</v>
+        <v>18771.920844613338</v>
       </c>
       <c r="F119" t="s">
         <v>13</v>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="E120">
         <f t="shared" si="1"/>
-        <v>195310.55078018238</v>
+        <v>24413.818847522798</v>
       </c>
       <c r="F120" t="s">
         <v>13</v>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="E121">
         <f t="shared" si="1"/>
-        <v>169536.50174987264</v>
+        <v>21192.06271873408</v>
       </c>
       <c r="F121" t="s">
         <v>13</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="E122">
         <f t="shared" si="1"/>
-        <v>192104.7677650816</v>
+        <v>24013.095970635201</v>
       </c>
       <c r="F122" t="s">
         <v>13</v>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E123">
         <f t="shared" si="1"/>
-        <v>160436.89757883674</v>
+        <v>20054.612197354592</v>
       </c>
       <c r="F123" t="s">
         <v>13</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="E124">
         <f t="shared" si="1"/>
-        <v>190094.43873319012</v>
+        <v>23761.804841648765</v>
       </c>
       <c r="F124" t="s">
         <v>13</v>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="E125">
         <f t="shared" si="1"/>
-        <v>184870.55738514673</v>
+        <v>23108.819673143342</v>
       </c>
       <c r="F125" t="s">
         <v>13</v>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="E126">
         <f t="shared" si="1"/>
-        <v>165057.57393178783</v>
+        <v>20632.196741473479</v>
       </c>
       <c r="F126" t="s">
         <v>13</v>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E127">
         <f t="shared" si="1"/>
-        <v>182502.19407404072</v>
+        <v>22812.774259255089</v>
       </c>
       <c r="F127" t="s">
         <v>13</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E128">
         <f t="shared" si="1"/>
-        <v>171104.20463834619</v>
+        <v>21388.025579793273</v>
       </c>
       <c r="F128" t="s">
         <v>13</v>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="E129">
         <f t="shared" si="1"/>
-        <v>167933.50730280296</v>
+        <v>20991.68841285037</v>
       </c>
       <c r="F129" t="s">
         <v>13</v>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="E130">
         <f t="shared" si="1"/>
-        <v>168323.4183215526</v>
+        <v>21040.427290194075</v>
       </c>
       <c r="F130" t="s">
         <v>13</v>
@@ -3189,8 +3189,8 @@
         <v>19.45</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E200" si="2">(PI()* 4/3)* (C131*D131*D131)</f>
-        <v>152631.54295689828</v>
+        <f t="shared" ref="E131:E194" si="2">(PI()* 1/6)* (C131*D131*D131)</f>
+        <v>19078.942869612285</v>
       </c>
       <c r="F131" t="s">
         <v>13</v>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="E132">
         <f t="shared" si="2"/>
-        <v>171519.30491767073</v>
+        <v>21439.913114708841</v>
       </c>
       <c r="F132" t="s">
         <v>13</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
-        <v>168748.46444758424</v>
+        <v>21093.55805594803</v>
       </c>
       <c r="F133" t="s">
         <v>13</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
-        <v>183940.78268179647</v>
+        <v>22992.597835224558</v>
       </c>
       <c r="F134" t="s">
         <v>13</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
-        <v>177219.10422671819</v>
+        <v>22152.388028339774</v>
       </c>
       <c r="F135" t="s">
         <v>13</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="E136">
         <f t="shared" si="2"/>
-        <v>177977.35892905763</v>
+        <v>22247.169866132204</v>
       </c>
       <c r="F136" t="s">
         <v>13</v>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="E137">
         <f t="shared" si="2"/>
-        <v>180515.91649326342</v>
+        <v>22564.489561657927</v>
       </c>
       <c r="F137" t="s">
         <v>13</v>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="E138">
         <f t="shared" si="2"/>
-        <v>171404.60183036048</v>
+        <v>21425.57522879506</v>
       </c>
       <c r="F138" t="s">
         <v>13</v>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="E139">
         <f t="shared" si="2"/>
-        <v>173762.5002743314</v>
+        <v>21720.312534291425</v>
       </c>
       <c r="F139" t="s">
         <v>13</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="E140">
         <f t="shared" si="2"/>
-        <v>168753.23352765126</v>
+        <v>21094.154190956408</v>
       </c>
       <c r="F140" t="s">
         <v>13</v>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="E141">
         <f t="shared" si="2"/>
-        <v>180536.34954173479</v>
+        <v>22567.043692716848</v>
       </c>
       <c r="F141" t="s">
         <v>13</v>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="E142">
         <f t="shared" si="2"/>
-        <v>186098.5372572756</v>
+        <v>23262.31715715945</v>
       </c>
       <c r="F142" t="s">
         <v>13</v>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="E143">
         <f t="shared" si="2"/>
-        <v>186698.35539348147</v>
+        <v>23337.294424185184</v>
       </c>
       <c r="F143" t="s">
         <v>13</v>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E144">
         <f t="shared" si="2"/>
-        <v>167017.78345218289</v>
+        <v>20877.222931522861</v>
       </c>
       <c r="F144" t="s">
         <v>13</v>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="E145">
         <f t="shared" si="2"/>
-        <v>158543.31839443572</v>
+        <v>19817.914799304464</v>
       </c>
       <c r="F145" t="s">
         <v>13</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="E146">
         <f t="shared" si="2"/>
-        <v>168376.99368549889</v>
+        <v>21047.124210687361</v>
       </c>
       <c r="F146" t="s">
         <v>13</v>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="E147">
         <f t="shared" si="2"/>
-        <v>169063.29911766463</v>
+        <v>21132.912389708079</v>
       </c>
       <c r="F147" t="s">
         <v>13</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="E148">
         <f t="shared" si="2"/>
-        <v>178472.4218939227</v>
+        <v>22309.052736740337</v>
       </c>
       <c r="F148" t="s">
         <v>13</v>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="E149">
         <f t="shared" si="2"/>
-        <v>176607.28234982066</v>
+        <v>22075.910293727582</v>
       </c>
       <c r="F149" t="s">
         <v>13</v>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="E150">
         <f t="shared" si="2"/>
-        <v>166202.07255973699</v>
+        <v>20775.259069967124</v>
       </c>
       <c r="F150" t="s">
         <v>13</v>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="E151">
         <f t="shared" si="2"/>
-        <v>177876.76593653741</v>
+        <v>22234.595742067177</v>
       </c>
       <c r="F151" t="s">
         <v>13</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="E152">
         <f t="shared" si="2"/>
-        <v>173857.80563969002</v>
+        <v>21732.225704961253</v>
       </c>
       <c r="F152" t="s">
         <v>13</v>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="E153">
         <f t="shared" si="2"/>
-        <v>167166.69104419937</v>
+        <v>20895.836380524921</v>
       </c>
       <c r="F153" t="s">
         <v>13</v>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="E154">
         <f t="shared" si="2"/>
-        <v>181924.98145626939</v>
+        <v>22740.622682033674</v>
       </c>
       <c r="F154" t="s">
         <v>13</v>
@@ -3694,7 +3694,7 @@
       </c>
       <c r="E155">
         <f t="shared" si="2"/>
-        <v>170516.90708927769</v>
+        <v>21314.613386159712</v>
       </c>
       <c r="F155" t="s">
         <v>13</v>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="E156">
         <f t="shared" si="2"/>
-        <v>180208.52704591362</v>
+        <v>22526.065880739203</v>
       </c>
       <c r="F156" t="s">
         <v>13</v>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="E157">
         <f t="shared" si="2"/>
-        <v>177540.9306871783</v>
+        <v>22192.616335897288</v>
       </c>
       <c r="F157" t="s">
         <v>13</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="E158">
         <f t="shared" si="2"/>
-        <v>171246.09322960171</v>
+        <v>21405.761653700214</v>
       </c>
       <c r="F158" t="s">
         <v>13</v>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="E159">
         <f t="shared" si="2"/>
-        <v>126503.05676258486</v>
+        <v>15812.882095323108</v>
       </c>
       <c r="F159" t="s">
         <v>13</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E160">
         <f t="shared" si="2"/>
-        <v>197305.51593278849</v>
+        <v>24663.189491598561</v>
       </c>
       <c r="F160" t="s">
         <v>13</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="E161">
         <f t="shared" si="2"/>
-        <v>142848.65605591782</v>
+        <v>17856.082006989727</v>
       </c>
       <c r="F161" t="s">
         <v>13</v>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="E162">
         <f t="shared" si="2"/>
-        <v>187850.37284539398</v>
+        <v>23481.296605674248</v>
       </c>
       <c r="F162" t="s">
         <v>13</v>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="E163">
         <f t="shared" si="2"/>
-        <v>161435.9744924675</v>
+        <v>20179.496811558438</v>
       </c>
       <c r="F163" t="s">
         <v>13</v>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="E164">
         <f t="shared" si="2"/>
-        <v>181596.09200018478</v>
+        <v>22699.511500023098</v>
       </c>
       <c r="F164" t="s">
         <v>13</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="E165">
         <f t="shared" si="2"/>
-        <v>179640.54150358288</v>
+        <v>22455.06768794786</v>
       </c>
       <c r="F165" t="s">
         <v>13</v>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="E166">
         <f t="shared" si="2"/>
-        <v>189405.76238293661</v>
+        <v>23675.720297867076</v>
       </c>
       <c r="F166" t="s">
         <v>13</v>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="E167">
         <f t="shared" si="2"/>
-        <v>154976.35451442888</v>
+        <v>19372.04431430361</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="E168">
         <f t="shared" si="2"/>
-        <v>166359.09467613816</v>
+        <v>20794.88683451727</v>
       </c>
       <c r="F168" t="s">
         <v>13</v>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="E169">
         <f t="shared" si="2"/>
-        <v>157424.99319588655</v>
+        <v>19678.124149485819</v>
       </c>
       <c r="F169" t="s">
         <v>13</v>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="E170">
         <f t="shared" si="2"/>
-        <v>163351.35142481106</v>
+        <v>20418.918928101382</v>
       </c>
       <c r="F170" t="s">
         <v>13</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="E171">
         <f t="shared" si="2"/>
-        <v>160418.94743157033</v>
+        <v>20052.368428946291</v>
       </c>
       <c r="F171" t="s">
         <v>13</v>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="E172">
         <f t="shared" si="2"/>
-        <v>161471.56672661335</v>
+        <v>20183.945840826669</v>
       </c>
       <c r="F172" t="s">
         <v>13</v>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="E173">
         <f t="shared" si="2"/>
-        <v>175329.19755156289</v>
+        <v>21916.149693945361</v>
       </c>
       <c r="F173" t="s">
         <v>13</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="E174">
         <f t="shared" si="2"/>
-        <v>169701.09476527703</v>
+        <v>21212.636845659628</v>
       </c>
       <c r="F174" t="s">
         <v>13</v>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="E175">
         <f t="shared" si="2"/>
-        <v>167584.32177168661</v>
+        <v>20948.040221460826</v>
       </c>
       <c r="F175" t="s">
         <v>13</v>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E176">
         <f t="shared" si="2"/>
-        <v>167948.24130532768</v>
+        <v>20993.53016316596</v>
       </c>
       <c r="F176" t="s">
         <v>13</v>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="E177">
         <f t="shared" si="2"/>
-        <v>149713.52708520877</v>
+        <v>18714.190885651096</v>
       </c>
       <c r="F177" t="s">
         <v>13</v>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="E178">
         <f t="shared" si="2"/>
-        <v>171581.02767962727</v>
+        <v>21447.628459953408</v>
       </c>
       <c r="F178" t="s">
         <v>13</v>
@@ -4198,7 +4198,7 @@
       </c>
       <c r="E179">
         <f t="shared" si="2"/>
-        <v>160447.23986940391</v>
+        <v>20055.904983675489</v>
       </c>
       <c r="F179" t="s">
         <v>13</v>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="E180">
         <f t="shared" si="2"/>
-        <v>164106.44241768465</v>
+        <v>20513.305302210581</v>
       </c>
       <c r="F180" t="s">
         <v>13</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="E181">
         <f t="shared" si="2"/>
-        <v>166330.1837759972</v>
+        <v>20791.27297199965</v>
       </c>
       <c r="F181" t="s">
         <v>13</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="E182">
         <f t="shared" si="2"/>
-        <v>155531.06407157431</v>
+        <v>19441.383008946788</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="E183">
         <f t="shared" si="2"/>
-        <v>151355.8576861654</v>
+        <v>18919.482210770675</v>
       </c>
       <c r="F183" t="s">
         <v>12</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="E184">
         <f t="shared" si="2"/>
-        <v>129414.7389572901</v>
+        <v>16176.842369661263</v>
       </c>
       <c r="F184" t="s">
         <v>12</v>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="E185">
         <f t="shared" si="2"/>
-        <v>148037.71337299503</v>
+        <v>18504.714171624379</v>
       </c>
       <c r="F185" t="s">
         <v>12</v>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="E186">
         <f t="shared" si="2"/>
-        <v>145480.55592989665</v>
+        <v>18185.069491237082</v>
       </c>
       <c r="F186" t="s">
         <v>12</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="E187">
         <f t="shared" si="2"/>
-        <v>129728.61512326311</v>
+        <v>16216.076890407889</v>
       </c>
       <c r="F187" t="s">
         <v>12</v>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="E188">
         <f t="shared" si="2"/>
-        <v>157760.34580446064</v>
+        <v>19720.04322555758</v>
       </c>
       <c r="F188" t="s">
         <v>12</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="E189">
         <f t="shared" si="2"/>
-        <v>150739.81042579183</v>
+        <v>18842.476303223979</v>
       </c>
       <c r="F189" t="s">
         <v>12</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="E190">
         <f t="shared" si="2"/>
-        <v>141804.2705652494</v>
+        <v>17725.533820656176</v>
       </c>
       <c r="F190" t="s">
         <v>12</v>
@@ -4450,7 +4450,7 @@
       </c>
       <c r="E191">
         <f t="shared" si="2"/>
-        <v>144028.00579955071</v>
+        <v>18003.500724943839</v>
       </c>
       <c r="F191" t="s">
         <v>12</v>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E192">
         <f t="shared" si="2"/>
-        <v>136508.47526691126</v>
+        <v>17063.559408363908</v>
       </c>
       <c r="F192" t="s">
         <v>12</v>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="E193">
         <f t="shared" si="2"/>
-        <v>149414.55569873712</v>
+        <v>18676.81946234214</v>
       </c>
       <c r="F193" t="s">
         <v>12</v>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="E194">
         <f t="shared" si="2"/>
-        <v>140275.73109752117</v>
+        <v>17534.466387190147</v>
       </c>
       <c r="F194" t="s">
         <v>12</v>
@@ -4533,8 +4533,8 @@
         <v>18.079999999999998</v>
       </c>
       <c r="E195">
-        <f t="shared" si="2"/>
-        <v>135104.74116775938</v>
+        <f t="shared" ref="E195:E258" si="3">(PI()* 1/6)* (C195*D195*D195)</f>
+        <v>16888.092645969922</v>
       </c>
       <c r="F195" t="s">
         <v>12</v>
@@ -4554,8 +4554,8 @@
         <v>18.940000000000001</v>
       </c>
       <c r="E196">
-        <f t="shared" si="2"/>
-        <v>150652.47084506665</v>
+        <f t="shared" si="3"/>
+        <v>18831.558855633331</v>
       </c>
       <c r="F196" t="s">
         <v>12</v>
@@ -4575,8 +4575,8 @@
         <v>19.27</v>
       </c>
       <c r="E197">
-        <f t="shared" si="2"/>
-        <v>164409.54442463149</v>
+        <f t="shared" si="3"/>
+        <v>20551.193053078936</v>
       </c>
       <c r="F197" t="s">
         <v>12</v>
@@ -4596,8 +4596,8 @@
         <v>19.489999999999998</v>
       </c>
       <c r="E198">
-        <f t="shared" si="2"/>
-        <v>167055.28639460303</v>
+        <f t="shared" si="3"/>
+        <v>20881.910799325378</v>
       </c>
       <c r="F198" t="s">
         <v>12</v>
@@ -4617,8 +4617,8 @@
         <v>16.91</v>
       </c>
       <c r="E199">
-        <f t="shared" si="2"/>
-        <v>118220.55045526347</v>
+        <f t="shared" si="3"/>
+        <v>14777.568806907933</v>
       </c>
       <c r="F199" t="s">
         <v>12</v>
@@ -4638,8 +4638,8 @@
         <v>19.13</v>
       </c>
       <c r="E200">
-        <f t="shared" si="2"/>
-        <v>155023.86365564546</v>
+        <f t="shared" si="3"/>
+        <v>19377.982956955682</v>
       </c>
       <c r="F200" t="s">
         <v>12</v>
@@ -4659,8 +4659,8 @@
         <v>18.829999999999998</v>
       </c>
       <c r="E201">
-        <f t="shared" ref="E201:E361" si="3">(PI()* 4/3)* (C201*D201*D201)</f>
-        <v>137827.92743044693</v>
+        <f t="shared" si="3"/>
+        <v>17228.490928805866</v>
       </c>
       <c r="F201" t="s">
         <v>12</v>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="E202">
         <f t="shared" si="3"/>
-        <v>166424.21007751161</v>
+        <v>20803.026259688952</v>
       </c>
       <c r="F202" t="s">
         <v>12</v>
@@ -4702,7 +4702,7 @@
       </c>
       <c r="E203">
         <f t="shared" si="3"/>
-        <v>145015.34364538777</v>
+        <v>18126.917955673471</v>
       </c>
       <c r="F203" t="s">
         <v>12</v>
@@ -4723,7 +4723,7 @@
       </c>
       <c r="E204">
         <f t="shared" si="3"/>
-        <v>160990.30222730231</v>
+        <v>20123.787778412789</v>
       </c>
       <c r="F204" t="s">
         <v>12</v>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="E205">
         <f t="shared" si="3"/>
-        <v>159766.07409957459</v>
+        <v>19970.759262446823</v>
       </c>
       <c r="F205" t="s">
         <v>12</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="E206">
         <f t="shared" si="3"/>
-        <v>141212.26211003232</v>
+        <v>17651.532763754039</v>
       </c>
       <c r="F206" t="s">
         <v>12</v>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="E207">
         <f t="shared" si="3"/>
-        <v>120461.94848582306</v>
+        <v>15057.743560727882</v>
       </c>
       <c r="F207" t="s">
         <v>12</v>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E208">
         <f t="shared" si="3"/>
-        <v>151299.43272594191</v>
+        <v>18912.429090742738</v>
       </c>
       <c r="F208" t="s">
         <v>12</v>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="E209">
         <f t="shared" si="3"/>
-        <v>130189.10297183097</v>
+        <v>16273.637871478872</v>
       </c>
       <c r="F209" t="s">
         <v>12</v>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="E210">
         <f t="shared" si="3"/>
-        <v>153328.38516934929</v>
+        <v>19166.048146168661</v>
       </c>
       <c r="F210" t="s">
         <v>12</v>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="E211">
         <f t="shared" si="3"/>
-        <v>157564.48568185885</v>
+        <v>19695.560710232356</v>
       </c>
       <c r="F211" t="s">
         <v>12</v>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="E212">
         <f t="shared" si="3"/>
-        <v>149934.95190965157</v>
+        <v>18741.868988706447</v>
       </c>
       <c r="F212" t="s">
         <v>12</v>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="E213">
         <f t="shared" si="3"/>
-        <v>151963.70109620312</v>
+        <v>18995.46263702539</v>
       </c>
       <c r="F213" t="s">
         <v>12</v>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="E214">
         <f t="shared" si="3"/>
-        <v>150783.79366541994</v>
+        <v>18847.974208177493</v>
       </c>
       <c r="F214" t="s">
         <v>12</v>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="E215">
         <f t="shared" si="3"/>
-        <v>145654.34168103951</v>
+        <v>18206.792710129939</v>
       </c>
       <c r="F215" t="s">
         <v>12</v>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="E216">
         <f t="shared" si="3"/>
-        <v>148702.18631120338</v>
+        <v>18587.773288900422</v>
       </c>
       <c r="F216" t="s">
         <v>12</v>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="E217">
         <f t="shared" si="3"/>
-        <v>142178.36244605025</v>
+        <v>17772.295305756281</v>
       </c>
       <c r="F217" t="s">
         <v>12</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="E218">
         <f t="shared" si="3"/>
-        <v>155446.98247741599</v>
+        <v>19430.872809676999</v>
       </c>
       <c r="F218" t="s">
         <v>12</v>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="E219">
         <f t="shared" si="3"/>
-        <v>166229.36943104741</v>
+        <v>20778.671178880926</v>
       </c>
       <c r="F219" t="s">
         <v>12</v>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="E220">
         <f t="shared" si="3"/>
-        <v>145940.70048197449</v>
+        <v>18242.587560246811</v>
       </c>
       <c r="F220" t="s">
         <v>12</v>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="E221">
         <f t="shared" si="3"/>
-        <v>148697.05923199278</v>
+        <v>18587.132403999098</v>
       </c>
       <c r="F221" t="s">
         <v>12</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="E222">
         <f t="shared" si="3"/>
-        <v>139297.09669065016</v>
+        <v>17412.13708633127</v>
       </c>
       <c r="F222" t="s">
         <v>12</v>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="E223">
         <f t="shared" si="3"/>
-        <v>150653.43360498486</v>
+        <v>18831.679200623108</v>
       </c>
       <c r="F223" t="s">
         <v>12</v>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E224">
         <f t="shared" si="3"/>
-        <v>152542.04834833244</v>
+        <v>19067.756043541554</v>
       </c>
       <c r="F224" t="s">
         <v>12</v>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="E225">
         <f t="shared" si="3"/>
-        <v>147518.95019126337</v>
+        <v>18439.868773907921</v>
       </c>
       <c r="F225" t="s">
         <v>12</v>
@@ -5185,7 +5185,7 @@
       </c>
       <c r="E226">
         <f t="shared" si="3"/>
-        <v>139906.39893065245</v>
+        <v>17488.299866331556</v>
       </c>
       <c r="F226" t="s">
         <v>12</v>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="E227">
         <f t="shared" si="3"/>
-        <v>151066.10157950124</v>
+        <v>18883.262697437654</v>
       </c>
       <c r="F227" t="s">
         <v>12</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="E228">
         <f t="shared" si="3"/>
-        <v>162685.398432038</v>
+        <v>20335.67480400475</v>
       </c>
       <c r="F228" t="s">
         <v>12</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="E229">
         <f t="shared" si="3"/>
-        <v>134261.24842168434</v>
+        <v>16782.656052710543</v>
       </c>
       <c r="F229" t="s">
         <v>12</v>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="E230">
         <f t="shared" si="3"/>
-        <v>142692.48689867725</v>
+        <v>17836.560862334656</v>
       </c>
       <c r="F230" t="s">
         <v>12</v>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="E231">
         <f t="shared" si="3"/>
-        <v>148446.99044225359</v>
+        <v>18555.873805281699</v>
       </c>
       <c r="F231" t="s">
         <v>12</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="E232">
         <f t="shared" si="3"/>
-        <v>151960.9016564998</v>
+        <v>18995.112707062475</v>
       </c>
       <c r="F232" t="s">
         <v>12</v>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="E233">
         <f t="shared" si="3"/>
-        <v>152506.29571703207</v>
+        <v>19063.286964629009</v>
       </c>
       <c r="F233" t="s">
         <v>12</v>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="E234">
         <f t="shared" si="3"/>
-        <v>140112.27636072229</v>
+        <v>17514.034545090286</v>
       </c>
       <c r="F234" t="s">
         <v>12</v>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="E235">
         <f t="shared" si="3"/>
-        <v>155429.30965738278</v>
+        <v>19428.663707172847</v>
       </c>
       <c r="F235" t="s">
         <v>12</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="E236">
         <f t="shared" si="3"/>
-        <v>159839.27184285765</v>
+        <v>19979.908980357206</v>
       </c>
       <c r="F236" t="s">
         <v>12</v>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="E237">
         <f t="shared" si="3"/>
-        <v>148407.18175094362</v>
+        <v>18550.897718867953</v>
       </c>
       <c r="F237" t="s">
         <v>12</v>
@@ -5436,8 +5436,8 @@
         <v>17.07</v>
       </c>
       <c r="E238">
-        <f>(PI()* 4/3)* (C238*D238*D238)</f>
-        <v>114975.83024759876</v>
+        <f t="shared" si="3"/>
+        <v>14371.978780949845</v>
       </c>
       <c r="F238" t="s">
         <v>12</v>
@@ -5457,8 +5457,8 @@
         <v>19.77</v>
       </c>
       <c r="E239">
-        <f>(PI()* 4/3)* (C239*D239*D239)</f>
-        <v>150589.72949499599</v>
+        <f t="shared" si="3"/>
+        <v>18823.716186874499</v>
       </c>
       <c r="F239" t="s">
         <v>12</v>
@@ -5478,8 +5478,8 @@
         <v>18.25</v>
       </c>
       <c r="E240">
-        <f>(PI()* 4/3)* (C240*D240*D240)</f>
-        <v>128644.83933440552</v>
+        <f t="shared" si="3"/>
+        <v>16080.60491680069</v>
       </c>
       <c r="F240" t="s">
         <v>12</v>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="E241">
         <f t="shared" si="3"/>
-        <v>150828.47692728945</v>
+        <v>18853.559615911181</v>
       </c>
       <c r="F241" t="s">
         <v>12</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="E242">
         <f t="shared" si="3"/>
-        <v>114182.50191266229</v>
+        <v>14272.812739082787</v>
       </c>
       <c r="F242" t="s">
         <v>12</v>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="E243">
         <f t="shared" si="3"/>
-        <v>123901.87317408035</v>
+        <v>15487.734146760044</v>
       </c>
       <c r="F243" t="s">
         <v>12</v>
@@ -5563,7 +5563,7 @@
       </c>
       <c r="E244">
         <f t="shared" si="3"/>
-        <v>128134.69589542279</v>
+        <v>16016.836986927849</v>
       </c>
       <c r="F244" t="s">
         <v>12</v>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="E245">
         <f t="shared" si="3"/>
-        <v>144534.96290541167</v>
+        <v>18066.870363176458</v>
       </c>
       <c r="F245" t="s">
         <v>12</v>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="E246">
         <f t="shared" si="3"/>
-        <v>148602.12909846072</v>
+        <v>18575.26613730759</v>
       </c>
       <c r="F246" t="s">
         <v>12</v>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="E247">
         <f t="shared" si="3"/>
-        <v>107393.69809036356</v>
+        <v>13424.212261295444</v>
       </c>
       <c r="F247" t="s">
         <v>12</v>
@@ -5647,7 +5647,7 @@
       </c>
       <c r="E248">
         <f t="shared" si="3"/>
-        <v>132749.39100363108</v>
+        <v>16593.673875453886</v>
       </c>
       <c r="F248" t="s">
         <v>12</v>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="E249">
         <f t="shared" si="3"/>
-        <v>141943.90832265478</v>
+        <v>17742.988540331848</v>
       </c>
       <c r="F249" t="s">
         <v>12</v>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="E250">
         <f t="shared" si="3"/>
-        <v>155998.52043760355</v>
+        <v>19499.815054700444</v>
       </c>
       <c r="F250" t="s">
         <v>12</v>
@@ -5710,7 +5710,7 @@
       </c>
       <c r="E251">
         <f t="shared" si="3"/>
-        <v>107922.32548765876</v>
+        <v>13490.290685957345</v>
       </c>
       <c r="F251" t="s">
         <v>12</v>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="E252">
         <f t="shared" si="3"/>
-        <v>116463.13230726517</v>
+        <v>14557.891538408147</v>
       </c>
       <c r="F252" t="s">
         <v>12</v>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="E253">
         <f t="shared" si="3"/>
-        <v>111019.52006059376</v>
+        <v>13877.44000757422</v>
       </c>
       <c r="F253" t="s">
         <v>12</v>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="E254">
         <f t="shared" si="3"/>
-        <v>133988.3972418443</v>
+        <v>16748.549655230538</v>
       </c>
       <c r="F254" t="s">
         <v>12</v>
@@ -5794,7 +5794,7 @@
       </c>
       <c r="E255">
         <f t="shared" si="3"/>
-        <v>130697.25888431584</v>
+        <v>16337.157360539481</v>
       </c>
       <c r="F255" t="s">
         <v>12</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E256">
         <f t="shared" si="3"/>
-        <v>153230.35114227547</v>
+        <v>19153.793892784433</v>
       </c>
       <c r="F256" t="s">
         <v>12</v>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="E257">
         <f t="shared" si="3"/>
-        <v>126016.43873806467</v>
+        <v>15752.054842258083</v>
       </c>
       <c r="F257" t="s">
         <v>12</v>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="E258">
         <f t="shared" si="3"/>
-        <v>140937.70362538146</v>
+        <v>17617.212953172682</v>
       </c>
       <c r="F258" t="s">
         <v>12</v>
@@ -5877,8 +5877,8 @@
         <v>18.63</v>
       </c>
       <c r="E259">
-        <f t="shared" si="3"/>
-        <v>134726.64100429005</v>
+        <f t="shared" ref="E259:E322" si="4">(PI()* 1/6)* (C259*D259*D259)</f>
+        <v>16840.830125536257</v>
       </c>
       <c r="F259" t="s">
         <v>12</v>
@@ -5898,8 +5898,8 @@
         <v>17.27</v>
       </c>
       <c r="E260">
-        <f t="shared" si="3"/>
-        <v>105804.81137979502</v>
+        <f t="shared" si="4"/>
+        <v>13225.601422474378</v>
       </c>
       <c r="F260" t="s">
         <v>12</v>
@@ -5919,8 +5919,8 @@
         <v>19.260000000000002</v>
       </c>
       <c r="E261">
-        <f t="shared" si="3"/>
-        <v>151886.06857182173</v>
+        <f t="shared" si="4"/>
+        <v>18985.758571477716</v>
       </c>
       <c r="F261" t="s">
         <v>12</v>
@@ -5940,8 +5940,8 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E262">
-        <f t="shared" si="3"/>
-        <v>139752.34176143311</v>
+        <f t="shared" si="4"/>
+        <v>17469.042720179139</v>
       </c>
       <c r="F262" t="s">
         <v>12</v>
@@ -5961,8 +5961,8 @@
         <v>18.14</v>
       </c>
       <c r="E263">
-        <f t="shared" si="3"/>
-        <v>132722.44128249763</v>
+        <f t="shared" si="4"/>
+        <v>16590.305160312204</v>
       </c>
       <c r="F263" t="s">
         <v>12</v>
@@ -5982,8 +5982,8 @@
         <v>19.09</v>
       </c>
       <c r="E264">
-        <f t="shared" si="3"/>
-        <v>140561.3037463105</v>
+        <f t="shared" si="4"/>
+        <v>17570.162968288812</v>
       </c>
       <c r="F264" t="s">
         <v>12</v>
@@ -6003,8 +6003,8 @@
         <v>17.23</v>
       </c>
       <c r="E265">
-        <f t="shared" si="3"/>
-        <v>128942.48586936726</v>
+        <f t="shared" si="4"/>
+        <v>16117.810733670907</v>
       </c>
       <c r="F265" t="s">
         <v>12</v>
@@ -6024,8 +6024,8 @@
         <v>18.38</v>
       </c>
       <c r="E266">
-        <f t="shared" si="3"/>
-        <v>129210.5473435373</v>
+        <f t="shared" si="4"/>
+        <v>16151.318417942162</v>
       </c>
       <c r="F266" t="s">
         <v>12</v>
@@ -6045,8 +6045,8 @@
         <v>16.809999999999999</v>
       </c>
       <c r="E267">
-        <f t="shared" si="3"/>
-        <v>110387.38550011131</v>
+        <f t="shared" si="4"/>
+        <v>13798.423187513914</v>
       </c>
       <c r="F267" t="s">
         <v>12</v>
@@ -6066,8 +6066,8 @@
         <v>18.86</v>
       </c>
       <c r="E268">
-        <f t="shared" si="3"/>
-        <v>150544.64907298324</v>
+        <f t="shared" si="4"/>
+        <v>18818.081134122905</v>
       </c>
       <c r="F268" t="s">
         <v>12</v>
@@ -6087,8 +6087,8 @@
         <v>18.47</v>
       </c>
       <c r="E269">
-        <f t="shared" si="3"/>
-        <v>140410.36230815406</v>
+        <f t="shared" si="4"/>
+        <v>17551.295288519257</v>
       </c>
       <c r="F269" t="s">
         <v>12</v>
@@ -6108,8 +6108,8 @@
         <v>16.91</v>
       </c>
       <c r="E270">
-        <f t="shared" si="3"/>
-        <v>113956.46575799155</v>
+        <f t="shared" si="4"/>
+        <v>14244.558219748944</v>
       </c>
       <c r="F270" t="s">
         <v>12</v>
@@ -6129,8 +6129,8 @@
         <v>18.760000000000002</v>
       </c>
       <c r="E271">
-        <f t="shared" si="3"/>
-        <v>140593.76462520609</v>
+        <f t="shared" si="4"/>
+        <v>17574.220578150762</v>
       </c>
       <c r="F271" t="s">
         <v>12</v>
@@ -6150,8 +6150,8 @@
         <v>18.760000000000002</v>
       </c>
       <c r="E272">
-        <f t="shared" si="3"/>
-        <v>145974.56824145859</v>
+        <f t="shared" si="4"/>
+        <v>18246.821030182324</v>
       </c>
       <c r="F272" t="s">
         <v>13</v>
@@ -6171,8 +6171,8 @@
         <v>19.45</v>
       </c>
       <c r="E273">
-        <f t="shared" si="3"/>
-        <v>153027.70040850982</v>
+        <f t="shared" si="4"/>
+        <v>19128.462551063727</v>
       </c>
       <c r="F273" t="s">
         <v>13</v>
@@ -6192,8 +6192,8 @@
         <v>19.55</v>
       </c>
       <c r="E274">
-        <f t="shared" si="3"/>
-        <v>156574.48343034834</v>
+        <f t="shared" si="4"/>
+        <v>19571.810428793542</v>
       </c>
       <c r="F274" t="s">
         <v>13</v>
@@ -6213,8 +6213,8 @@
         <v>19.350000000000001</v>
       </c>
       <c r="E275">
-        <f t="shared" si="3"/>
-        <v>143302.63394226565</v>
+        <f t="shared" si="4"/>
+        <v>17912.829242783206</v>
       </c>
       <c r="F275" t="s">
         <v>13</v>
@@ -6234,8 +6234,8 @@
         <v>20.52</v>
       </c>
       <c r="E276">
-        <f t="shared" si="3"/>
-        <v>170292.5309982418</v>
+        <f t="shared" si="4"/>
+        <v>21286.566374780225</v>
       </c>
       <c r="F276" t="s">
         <v>13</v>
@@ -6255,8 +6255,8 @@
         <v>19.25</v>
       </c>
       <c r="E277">
-        <f t="shared" si="3"/>
-        <v>151262.72517194974</v>
+        <f t="shared" si="4"/>
+        <v>18907.840646493718</v>
       </c>
       <c r="F277" t="s">
         <v>13</v>
@@ -6276,8 +6276,8 @@
         <v>20.63</v>
       </c>
       <c r="E278">
-        <f t="shared" si="3"/>
-        <v>180092.00343917089</v>
+        <f t="shared" si="4"/>
+        <v>22511.500429896361</v>
       </c>
       <c r="F278" t="s">
         <v>13</v>
@@ -6297,8 +6297,8 @@
         <v>19.18</v>
       </c>
       <c r="E279">
-        <f t="shared" si="3"/>
-        <v>144663.47590205076</v>
+        <f t="shared" si="4"/>
+        <v>18082.934487756345</v>
       </c>
       <c r="F279" t="s">
         <v>13</v>
@@ -6318,8 +6318,8 @@
         <v>21.6</v>
       </c>
       <c r="E280">
-        <f t="shared" si="3"/>
-        <v>194689.55345049474</v>
+        <f t="shared" si="4"/>
+        <v>24336.194181311843</v>
       </c>
       <c r="F280" t="s">
         <v>13</v>
@@ -6339,8 +6339,8 @@
         <v>20.05</v>
       </c>
       <c r="E281">
-        <f t="shared" si="3"/>
-        <v>161570.60168605056</v>
+        <f t="shared" si="4"/>
+        <v>20196.32521075632</v>
       </c>
       <c r="F281" t="s">
         <v>13</v>
@@ -6360,8 +6360,8 @@
         <v>20.16</v>
       </c>
       <c r="E282">
-        <f t="shared" si="3"/>
-        <v>161560.7562069456</v>
+        <f t="shared" si="4"/>
+        <v>20195.0945258682</v>
       </c>
       <c r="F282" t="s">
         <v>13</v>
@@ -6381,8 +6381,8 @@
         <v>19.97</v>
       </c>
       <c r="E283">
-        <f t="shared" si="3"/>
-        <v>160049.96341599946</v>
+        <f t="shared" si="4"/>
+        <v>20006.245426999933</v>
       </c>
       <c r="F283" t="s">
         <v>13</v>
@@ -6402,8 +6402,8 @@
         <v>20.03</v>
       </c>
       <c r="E284">
-        <f t="shared" si="3"/>
-        <v>165685.06958304765</v>
+        <f t="shared" si="4"/>
+        <v>20710.633697880956</v>
       </c>
       <c r="F284" t="s">
         <v>13</v>
@@ -6423,8 +6423,8 @@
         <v>19.25</v>
       </c>
       <c r="E285">
-        <f t="shared" si="3"/>
-        <v>154118.78894123028</v>
+        <f t="shared" si="4"/>
+        <v>19264.848617653784</v>
       </c>
       <c r="F285" t="s">
         <v>13</v>
@@ -6444,8 +6444,8 @@
         <v>19.95</v>
       </c>
       <c r="E286">
-        <f t="shared" si="3"/>
-        <v>161596.7499994644</v>
+        <f t="shared" si="4"/>
+        <v>20199.59374993305</v>
       </c>
       <c r="F286" t="s">
         <v>13</v>
@@ -6465,8 +6465,8 @@
         <v>20.96</v>
       </c>
       <c r="E287">
-        <f t="shared" si="3"/>
-        <v>180010.9087707767</v>
+        <f t="shared" si="4"/>
+        <v>22501.363596347088</v>
       </c>
       <c r="F287" t="s">
         <v>13</v>
@@ -6486,8 +6486,8 @@
         <v>20.91</v>
       </c>
       <c r="E288">
-        <f t="shared" si="3"/>
-        <v>180068.83085907367</v>
+        <f t="shared" si="4"/>
+        <v>22508.603857384209</v>
       </c>
       <c r="F288" t="s">
         <v>13</v>
@@ -6507,8 +6507,8 @@
         <v>20.11</v>
       </c>
       <c r="E289">
-        <f t="shared" si="3"/>
-        <v>167451.64725805575</v>
+        <f t="shared" si="4"/>
+        <v>20931.455907256968</v>
       </c>
       <c r="F289" t="s">
         <v>13</v>
@@ -6528,8 +6528,8 @@
         <v>21</v>
       </c>
       <c r="E290">
-        <f t="shared" si="3"/>
-        <v>176597.71951771231</v>
+        <f t="shared" si="4"/>
+        <v>22074.714939714038</v>
       </c>
       <c r="F290" t="s">
         <v>13</v>
@@ -6549,8 +6549,8 @@
         <v>19.38</v>
       </c>
       <c r="E291">
-        <f t="shared" si="3"/>
-        <v>151456.22450495849</v>
+        <f t="shared" si="4"/>
+        <v>18932.028063119811</v>
       </c>
       <c r="F291" t="s">
         <v>13</v>
@@ -6570,8 +6570,8 @@
         <v>20.58</v>
       </c>
       <c r="E292">
-        <f t="shared" si="3"/>
-        <v>172922.0264061121</v>
+        <f t="shared" si="4"/>
+        <v>21615.253300764012</v>
       </c>
       <c r="F292" t="s">
         <v>13</v>
@@ -6591,8 +6591,8 @@
         <v>20.28</v>
       </c>
       <c r="E293">
-        <f t="shared" si="3"/>
-        <v>163886.05733055764</v>
+        <f t="shared" si="4"/>
+        <v>20485.757166319705</v>
       </c>
       <c r="F293" t="s">
         <v>13</v>
@@ -6612,8 +6612,8 @@
         <v>22.3</v>
       </c>
       <c r="E294">
-        <f t="shared" si="3"/>
-        <v>202596.80895605171</v>
+        <f t="shared" si="4"/>
+        <v>25324.601119506464</v>
       </c>
       <c r="F294" t="s">
         <v>13</v>
@@ -6633,8 +6633,8 @@
         <v>18.739999999999998</v>
       </c>
       <c r="E295">
-        <f t="shared" si="3"/>
-        <v>133600.86806973605</v>
+        <f t="shared" si="4"/>
+        <v>16700.108508717007</v>
       </c>
       <c r="F295" t="s">
         <v>13</v>
@@ -6654,8 +6654,8 @@
         <v>19.760000000000002</v>
       </c>
       <c r="E296">
-        <f t="shared" si="3"/>
-        <v>168542.90918574668</v>
+        <f t="shared" si="4"/>
+        <v>21067.863648218336</v>
       </c>
       <c r="F296" t="s">
         <v>13</v>
@@ -6675,8 +6675,8 @@
         <v>21.03</v>
       </c>
       <c r="E297">
-        <f t="shared" si="3"/>
-        <v>186031.87860087096</v>
+        <f t="shared" si="4"/>
+        <v>23253.98482510887</v>
       </c>
       <c r="F297" t="s">
         <v>13</v>
@@ -6696,8 +6696,8 @@
         <v>19.420000000000002</v>
       </c>
       <c r="E298">
-        <f t="shared" si="3"/>
-        <v>157500.60224138372</v>
+        <f t="shared" si="4"/>
+        <v>19687.575280172965</v>
       </c>
       <c r="F298" t="s">
         <v>13</v>
@@ -6717,8 +6717,8 @@
         <v>20.7</v>
       </c>
       <c r="E299">
-        <f t="shared" si="3"/>
-        <v>167513.79053684973</v>
+        <f t="shared" si="4"/>
+        <v>20939.223817106216</v>
       </c>
       <c r="F299" t="s">
         <v>13</v>
@@ -6738,8 +6738,8 @@
         <v>21.11</v>
       </c>
       <c r="E300">
-        <f t="shared" si="3"/>
-        <v>179404.63257146141</v>
+        <f t="shared" si="4"/>
+        <v>22425.579071432676</v>
       </c>
       <c r="F300" t="s">
         <v>13</v>
@@ -6759,8 +6759,8 @@
         <v>20.81</v>
       </c>
       <c r="E301">
-        <f t="shared" si="3"/>
-        <v>181543.23347228378</v>
+        <f t="shared" si="4"/>
+        <v>22692.904184035473</v>
       </c>
       <c r="F301" t="s">
         <v>13</v>
@@ -6780,8 +6780,8 @@
         <v>21.76</v>
       </c>
       <c r="E302">
-        <f t="shared" si="3"/>
-        <v>208810.46842181936</v>
+        <f t="shared" si="4"/>
+        <v>26101.30855272742</v>
       </c>
       <c r="F302" t="s">
         <v>13</v>
@@ -6801,8 +6801,8 @@
         <v>20.99</v>
       </c>
       <c r="E303">
-        <f t="shared" si="3"/>
-        <v>186026.15881622385</v>
+        <f t="shared" si="4"/>
+        <v>23253.269852027981</v>
       </c>
       <c r="F303" t="s">
         <v>13</v>
@@ -6822,8 +6822,8 @@
         <v>21.79</v>
       </c>
       <c r="E304">
-        <f t="shared" si="3"/>
-        <v>197672.27492164558</v>
+        <f t="shared" si="4"/>
+        <v>24709.034365205698</v>
       </c>
       <c r="F304" t="s">
         <v>13</v>
@@ -6843,8 +6843,8 @@
         <v>20.14</v>
       </c>
       <c r="E305">
-        <f t="shared" si="3"/>
-        <v>170347.29514084823</v>
+        <f t="shared" si="4"/>
+        <v>21293.411892606029</v>
       </c>
       <c r="F305" t="s">
         <v>13</v>
@@ -6864,8 +6864,8 @@
         <v>20.09</v>
       </c>
       <c r="E306">
-        <f t="shared" si="3"/>
-        <v>172173.72415201308</v>
+        <f t="shared" si="4"/>
+        <v>21521.715519001635</v>
       </c>
       <c r="F306" t="s">
         <v>13</v>
@@ -6885,8 +6885,8 @@
         <v>19.98</v>
       </c>
       <c r="E307">
-        <f t="shared" si="3"/>
-        <v>173988.94776401148</v>
+        <f t="shared" si="4"/>
+        <v>21748.618470501435</v>
       </c>
       <c r="F307" t="s">
         <v>13</v>
@@ -6906,8 +6906,8 @@
         <v>19.53</v>
       </c>
       <c r="E308">
-        <f t="shared" si="3"/>
-        <v>161654.4896952695</v>
+        <f t="shared" si="4"/>
+        <v>20206.811211908687</v>
       </c>
       <c r="F308" t="s">
         <v>13</v>
@@ -6927,8 +6927,8 @@
         <v>21.08</v>
       </c>
       <c r="E309">
-        <f t="shared" si="3"/>
-        <v>179993.28220755365</v>
+        <f t="shared" si="4"/>
+        <v>22499.160275944207</v>
       </c>
       <c r="F309" t="s">
         <v>13</v>
@@ -6948,8 +6948,8 @@
         <v>19.61</v>
       </c>
       <c r="E310">
-        <f t="shared" si="3"/>
-        <v>167524.0392498438</v>
+        <f t="shared" si="4"/>
+        <v>20940.504906230475</v>
       </c>
       <c r="F310" t="s">
         <v>13</v>
@@ -6969,8 +6969,8 @@
         <v>19.899999999999999</v>
       </c>
       <c r="E311">
-        <f t="shared" si="3"/>
-        <v>165614.87245030625</v>
+        <f t="shared" si="4"/>
+        <v>20701.859056288282</v>
       </c>
       <c r="F311" t="s">
         <v>13</v>
@@ -6990,8 +6990,8 @@
         <v>19.5</v>
       </c>
       <c r="E312">
-        <f t="shared" si="3"/>
-        <v>153942.90949451295</v>
+        <f t="shared" si="4"/>
+        <v>19242.863686814118</v>
       </c>
       <c r="F312" t="s">
         <v>13</v>
@@ -7011,8 +7011,8 @@
         <v>20.67</v>
       </c>
       <c r="E313">
-        <f t="shared" si="3"/>
-        <v>171019.52806004969</v>
+        <f t="shared" si="4"/>
+        <v>21377.441007506211</v>
       </c>
       <c r="F313" t="s">
         <v>13</v>
@@ -7032,8 +7032,8 @@
         <v>20.440000000000001</v>
       </c>
       <c r="E314">
-        <f t="shared" si="3"/>
-        <v>187045.31613664515</v>
+        <f t="shared" si="4"/>
+        <v>23380.664517080644</v>
       </c>
       <c r="F314" t="s">
         <v>13</v>
@@ -7053,8 +7053,8 @@
         <v>21.41</v>
       </c>
       <c r="E315">
-        <f t="shared" si="3"/>
-        <v>179912.58135245938</v>
+        <f t="shared" si="4"/>
+        <v>22489.072669057423</v>
       </c>
       <c r="F315" t="s">
         <v>13</v>
@@ -7074,8 +7074,8 @@
         <v>19.95</v>
       </c>
       <c r="E316">
-        <f t="shared" si="3"/>
-        <v>169549.05060296637</v>
+        <f t="shared" si="4"/>
+        <v>21193.631325370796</v>
       </c>
       <c r="F316" t="s">
         <v>13</v>
@@ -7095,8 +7095,8 @@
         <v>22.09</v>
       </c>
       <c r="E317">
-        <f t="shared" si="3"/>
-        <v>221201.24685250461</v>
+        <f t="shared" si="4"/>
+        <v>27650.155856563077</v>
       </c>
       <c r="F317" t="s">
         <v>13</v>
@@ -7116,8 +7116,8 @@
         <v>19.86</v>
       </c>
       <c r="E318">
-        <f t="shared" si="3"/>
-        <v>169906.17602361497</v>
+        <f t="shared" si="4"/>
+        <v>21238.272002951871</v>
       </c>
       <c r="F318" t="s">
         <v>13</v>
@@ -7137,8 +7137,8 @@
         <v>20.27</v>
       </c>
       <c r="E319">
-        <f t="shared" si="3"/>
-        <v>170006.34423092057</v>
+        <f t="shared" si="4"/>
+        <v>21250.793028865071</v>
       </c>
       <c r="F319" t="s">
         <v>13</v>
@@ -7158,8 +7158,8 @@
         <v>19.55</v>
       </c>
       <c r="E320">
-        <f t="shared" si="3"/>
-        <v>161761.61355626173</v>
+        <f t="shared" si="4"/>
+        <v>20220.201694532716</v>
       </c>
       <c r="F320" t="s">
         <v>13</v>
@@ -7179,8 +7179,8 @@
         <v>20.36</v>
       </c>
       <c r="E321">
-        <f t="shared" si="3"/>
-        <v>176311.77420063605</v>
+        <f t="shared" si="4"/>
+        <v>22038.971775079506</v>
       </c>
       <c r="F321" t="s">
         <v>13</v>
@@ -7200,8 +7200,8 @@
         <v>18.97</v>
       </c>
       <c r="E322">
-        <f t="shared" si="3"/>
-        <v>151024.58384503252</v>
+        <f t="shared" si="4"/>
+        <v>18878.072980629066</v>
       </c>
       <c r="F322" t="s">
         <v>13</v>
@@ -7221,8 +7221,8 @@
         <v>20.54</v>
       </c>
       <c r="E323">
-        <f t="shared" si="3"/>
-        <v>168769.07084913834</v>
+        <f t="shared" ref="E323:E361" si="5">(PI()* 1/6)* (C323*D323*D323)</f>
+        <v>21096.133856142293</v>
       </c>
       <c r="F323" t="s">
         <v>13</v>
@@ -7242,8 +7242,8 @@
         <v>20.78</v>
       </c>
       <c r="E324">
-        <f t="shared" si="3"/>
-        <v>183805.66239639686</v>
+        <f t="shared" si="5"/>
+        <v>22975.707799549607</v>
       </c>
       <c r="F324" t="s">
         <v>13</v>
@@ -7263,8 +7263,8 @@
         <v>20.25</v>
       </c>
       <c r="E325">
-        <f t="shared" si="3"/>
-        <v>159433.73801056732</v>
+        <f t="shared" si="5"/>
+        <v>19929.217251320915</v>
       </c>
       <c r="F325" t="s">
         <v>13</v>
@@ -7284,8 +7284,8 @@
         <v>19.809999999999999</v>
       </c>
       <c r="E326">
-        <f t="shared" si="3"/>
-        <v>162016.13038043142</v>
+        <f t="shared" si="5"/>
+        <v>20252.016297553928</v>
       </c>
       <c r="F326" t="s">
         <v>13</v>
@@ -7305,8 +7305,8 @@
         <v>20.5</v>
       </c>
       <c r="E327">
-        <f t="shared" si="3"/>
-        <v>179325.74244240802</v>
+        <f t="shared" si="5"/>
+        <v>22415.717805301003</v>
       </c>
       <c r="F327" t="s">
         <v>13</v>
@@ -7326,8 +7326,8 @@
         <v>20.27</v>
       </c>
       <c r="E328">
-        <f t="shared" si="3"/>
-        <v>171555.29857195952</v>
+        <f t="shared" si="5"/>
+        <v>21444.41232149494</v>
       </c>
       <c r="F328" t="s">
         <v>13</v>
@@ -7347,8 +7347,8 @@
         <v>20.3</v>
       </c>
       <c r="E329">
-        <f t="shared" si="3"/>
-        <v>172477.76286460317</v>
+        <f t="shared" si="5"/>
+        <v>21559.720358075396</v>
       </c>
       <c r="F329" t="s">
         <v>13</v>
@@ -7368,8 +7368,8 @@
         <v>20.76</v>
       </c>
       <c r="E330">
-        <f t="shared" si="3"/>
-        <v>183939.44421252958</v>
+        <f t="shared" si="5"/>
+        <v>22992.430526566197</v>
       </c>
       <c r="F330" t="s">
         <v>13</v>
@@ -7389,8 +7389,8 @@
         <v>20.91</v>
       </c>
       <c r="E331">
-        <f t="shared" si="3"/>
-        <v>185563.20120668577</v>
+        <f t="shared" si="5"/>
+        <v>23195.400150835721</v>
       </c>
       <c r="F331" t="s">
         <v>13</v>
@@ -7410,8 +7410,8 @@
         <v>19.649999999999999</v>
       </c>
       <c r="E332">
-        <f t="shared" si="3"/>
-        <v>161900.35319934803</v>
+        <f t="shared" si="5"/>
+        <v>20237.544149918504</v>
       </c>
       <c r="F332" t="s">
         <v>13</v>
@@ -7431,8 +7431,8 @@
         <v>21.75</v>
       </c>
       <c r="E333">
-        <f t="shared" si="3"/>
-        <v>187297.01020211654</v>
+        <f t="shared" si="5"/>
+        <v>23412.126275264567</v>
       </c>
       <c r="F333" t="s">
         <v>13</v>
@@ -7452,8 +7452,8 @@
         <v>19.88</v>
       </c>
       <c r="E334">
-        <f t="shared" si="3"/>
-        <v>165182.81730540071</v>
+        <f t="shared" si="5"/>
+        <v>20647.852163175088</v>
       </c>
       <c r="F334" t="s">
         <v>13</v>
@@ -7473,8 +7473,8 @@
         <v>21</v>
       </c>
       <c r="E335">
-        <f t="shared" si="3"/>
-        <v>181197.38815368619</v>
+        <f t="shared" si="5"/>
+        <v>22649.673519210774</v>
       </c>
       <c r="F335" t="s">
         <v>13</v>
@@ -7494,8 +7494,8 @@
         <v>20.72</v>
       </c>
       <c r="E336">
-        <f t="shared" si="3"/>
-        <v>183339.20404733293</v>
+        <f t="shared" si="5"/>
+        <v>22917.400505916616</v>
       </c>
       <c r="F336" t="s">
         <v>13</v>
@@ -7515,8 +7515,8 @@
         <v>20.25</v>
       </c>
       <c r="E337">
-        <f t="shared" si="3"/>
-        <v>180165.96401560452</v>
+        <f t="shared" si="5"/>
+        <v>22520.745501950565</v>
       </c>
       <c r="F337" t="s">
         <v>13</v>
@@ -7536,8 +7536,8 @@
         <v>19.8</v>
       </c>
       <c r="E338">
-        <f t="shared" si="3"/>
-        <v>168372.02966751333</v>
+        <f t="shared" si="5"/>
+        <v>21046.503708439166</v>
       </c>
       <c r="F338" t="s">
         <v>13</v>
@@ -7557,8 +7557,8 @@
         <v>21.11</v>
       </c>
       <c r="E339">
-        <f t="shared" si="3"/>
-        <v>188812.59582357007</v>
+        <f t="shared" si="5"/>
+        <v>23601.574477946258</v>
       </c>
       <c r="F339" t="s">
         <v>13</v>
@@ -7578,8 +7578,8 @@
         <v>20.29</v>
       </c>
       <c r="E340">
-        <f t="shared" si="3"/>
-        <v>167979.48549146517</v>
+        <f t="shared" si="5"/>
+        <v>20997.435686433146</v>
       </c>
       <c r="F340" t="s">
         <v>13</v>
@@ -7599,8 +7599,8 @@
         <v>20.13</v>
       </c>
       <c r="E341">
-        <f t="shared" si="3"/>
-        <v>165120.01561161838</v>
+        <f t="shared" si="5"/>
+        <v>20640.001951452297</v>
       </c>
       <c r="F341" t="s">
         <v>13</v>
@@ -7620,8 +7620,8 @@
         <v>20.65</v>
       </c>
       <c r="E342">
-        <f t="shared" si="3"/>
-        <v>181209.42097714823</v>
+        <f t="shared" si="5"/>
+        <v>22651.177622143528</v>
       </c>
       <c r="F342" t="s">
         <v>13</v>
@@ -7641,8 +7641,8 @@
         <v>19.98</v>
       </c>
       <c r="E343">
-        <f t="shared" si="3"/>
-        <v>159023.05557287353</v>
+        <f t="shared" si="5"/>
+        <v>19877.881946609192</v>
       </c>
       <c r="F343" t="s">
         <v>13</v>
@@ -7662,8 +7662,8 @@
         <v>20.12</v>
       </c>
       <c r="E344">
-        <f t="shared" si="3"/>
-        <v>165736.01668639114</v>
+        <f t="shared" si="5"/>
+        <v>20717.002085798893</v>
       </c>
       <c r="F344" t="s">
         <v>13</v>
@@ -7683,8 +7683,8 @@
         <v>20.37</v>
       </c>
       <c r="E345">
-        <f t="shared" si="3"/>
-        <v>168785.30056392541</v>
+        <f t="shared" si="5"/>
+        <v>21098.162570490676</v>
       </c>
       <c r="F345" t="s">
         <v>13</v>
@@ -7704,8 +7704,8 @@
         <v>20.52</v>
       </c>
       <c r="E346">
-        <f t="shared" si="3"/>
-        <v>174913.62298390098</v>
+        <f t="shared" si="5"/>
+        <v>21864.202872987622</v>
       </c>
       <c r="F346" t="s">
         <v>13</v>
@@ -7725,8 +7725,8 @@
         <v>20.64</v>
       </c>
       <c r="E347">
-        <f t="shared" si="3"/>
-        <v>176055.30107739937</v>
+        <f t="shared" si="5"/>
+        <v>22006.912634674922</v>
       </c>
       <c r="F347" t="s">
         <v>13</v>
@@ -7746,8 +7746,8 @@
         <v>20.86</v>
       </c>
       <c r="E348">
-        <f t="shared" si="3"/>
-        <v>186481.30604105649</v>
+        <f t="shared" si="5"/>
+        <v>23310.163255132062</v>
       </c>
       <c r="F348" t="s">
         <v>13</v>
@@ -7767,8 +7767,8 @@
         <v>22.14</v>
       </c>
       <c r="E349">
-        <f t="shared" si="3"/>
-        <v>202492.45258685987</v>
+        <f t="shared" si="5"/>
+        <v>25311.556573357484</v>
       </c>
       <c r="F349" t="s">
         <v>13</v>
@@ -7788,8 +7788,8 @@
         <v>20.6</v>
       </c>
       <c r="E350">
-        <f t="shared" si="3"/>
-        <v>173524.92020341381</v>
+        <f t="shared" si="5"/>
+        <v>21690.615025426727</v>
       </c>
       <c r="F350" t="s">
         <v>13</v>
@@ -7809,8 +7809,8 @@
         <v>20.13</v>
       </c>
       <c r="E351">
-        <f t="shared" si="3"/>
-        <v>159365.93612021845</v>
+        <f t="shared" si="5"/>
+        <v>19920.742015027306</v>
       </c>
       <c r="F351" t="s">
         <v>13</v>
@@ -7830,8 +7830,8 @@
         <v>20.11</v>
       </c>
       <c r="E352">
-        <f t="shared" si="3"/>
-        <v>165994.80945692345</v>
+        <f t="shared" si="5"/>
+        <v>20749.351182115432</v>
       </c>
       <c r="F352" t="s">
         <v>13</v>
@@ -7851,8 +7851,8 @@
         <v>19.96</v>
       </c>
       <c r="E353">
-        <f t="shared" si="3"/>
-        <v>171621.52280893206</v>
+        <f t="shared" si="5"/>
+        <v>21452.690351116507</v>
       </c>
       <c r="F353" t="s">
         <v>13</v>
@@ -7872,8 +7872,8 @@
         <v>19.670000000000002</v>
       </c>
       <c r="E354">
-        <f t="shared" si="3"/>
-        <v>159507.34631393355</v>
+        <f t="shared" si="5"/>
+        <v>19938.418289241694</v>
       </c>
       <c r="F354" t="s">
         <v>13</v>
@@ -7893,8 +7893,8 @@
         <v>21.08</v>
       </c>
       <c r="E355">
-        <f t="shared" si="3"/>
-        <v>188499.68654766242</v>
+        <f t="shared" si="5"/>
+        <v>23562.460818457803</v>
       </c>
       <c r="F355" t="s">
         <v>13</v>
@@ -7914,8 +7914,8 @@
         <v>19.670000000000002</v>
       </c>
       <c r="E356">
-        <f t="shared" si="3"/>
-        <v>159361.48509499172</v>
+        <f t="shared" si="5"/>
+        <v>19920.185636873965</v>
       </c>
       <c r="F356" t="s">
         <v>13</v>
@@ -7935,8 +7935,8 @@
         <v>20.45</v>
       </c>
       <c r="E357">
-        <f t="shared" si="3"/>
-        <v>169833.37782808565</v>
+        <f t="shared" si="5"/>
+        <v>21229.172228510706</v>
       </c>
       <c r="F357" t="s">
         <v>13</v>
@@ -7956,8 +7956,8 @@
         <v>20.03</v>
       </c>
       <c r="E358">
-        <f t="shared" si="3"/>
-        <v>173869.33055139577</v>
+        <f t="shared" si="5"/>
+        <v>21733.666318924472</v>
       </c>
       <c r="F358" t="s">
         <v>13</v>
@@ -7977,8 +7977,8 @@
         <v>20.81</v>
       </c>
       <c r="E359">
-        <f t="shared" si="3"/>
-        <v>185606.55124784249</v>
+        <f t="shared" si="5"/>
+        <v>23200.818905980312</v>
       </c>
       <c r="F359" t="s">
         <v>13</v>
@@ -7998,8 +7998,8 @@
         <v>21.74</v>
       </c>
       <c r="E360">
-        <f t="shared" si="3"/>
-        <v>207991.259717812</v>
+        <f t="shared" si="5"/>
+        <v>25998.907464726501</v>
       </c>
       <c r="F360" t="s">
         <v>13</v>
@@ -8019,8 +8019,8 @@
         <v>21</v>
       </c>
       <c r="E361">
-        <f t="shared" si="3"/>
-        <v>191468.13418421423</v>
+        <f t="shared" si="5"/>
+        <v>23933.516773026779</v>
       </c>
       <c r="F361" t="s">
         <v>13</v>
